--- a/Design/BugList.xlsx
+++ b/Design/BugList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0B10BF-C20F-4728-8F3D-CA037EFC10C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F13565-7EDF-47EA-8A71-6B225BEFD2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,9 @@
   <si>
     <t>弃牌为最后一张时，时有一定几率不再抽牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
   </si>
 </sst>
 </file>
@@ -132,17 +135,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -443,7 +436,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -514,7 +507,7 @@
   <autoFilter ref="A1:F2" xr:uid="{E3D5B629-6D46-4399-B425-A3A4B9A1C171}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$L$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Design/BugList.xlsx
+++ b/Design/BugList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F13565-7EDF-47EA-8A71-6B225BEFD2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BBAF7-2E11-4082-9CB1-255696845172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,48 @@
   </si>
   <si>
     <t>已解决</t>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人有一定几率停止行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解决</t>
+  </si>
+  <si>
+    <t>未解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重</t>
+  </si>
+  <si>
+    <t>最后一张牌出完有一定几率不再抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前怀疑是协程延迟的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能卡位置错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,10 +475,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -444,6 +486,7 @@
     <col min="4" max="4" width="67.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -499,14 +542,78 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
       <c r="L3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F2" xr:uid="{E3D5B629-6D46-4399-B425-A3A4B9A1C171}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F1048576 G3:G4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$L$1</formula>
     </cfRule>
@@ -517,10 +624,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{E7217584-FE5E-4C0B-9F59-07A5DAAF6C51}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{E7217584-FE5E-4C0B-9F59-07A5DAAF6C51}">
       <formula1>$K$1:$K$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{B8B8A2B3-9B9D-4842-837D-624619B6B8F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{B8B8A2B3-9B9D-4842-837D-624619B6B8F9}">
       <formula1>$L$1:$L$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/Design/BugList.xlsx
+++ b/Design/BugList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02BBAF7-2E11-4082-9CB1-255696845172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961619BE-0C98-4554-9E19-D12ABC072A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前怀疑是协程延迟的原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未知原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +124,14 @@
   </si>
   <si>
     <t>严重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于弃牌攻击是最后一张牌时，出完后立刻执行了【抽牌】，这时弃牌效果生效，又弃掉了刚抽的牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡时技能卡数量不正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,7 +565,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -587,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -601,13 +605,33 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
